--- a/api/service/ORDER_STATUS_TEMPLATE.xlsx
+++ b/api/service/ORDER_STATUS_TEMPLATE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7988AC4-ACBD-41F2-8587-4922F4D220EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F36946-0423-46B7-9A85-5BFCC1033D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>วันที่อัพเดทสถานะ</t>
   </si>
   <si>
-    <t>dd-mm-yyyy</t>
-  </si>
-  <si>
     <t>หากไม่ใส่จะ Default เป็ฯวันที่อัพโหลดแทน</t>
   </si>
   <si>
@@ -102,17 +99,21 @@
     <t>วันที่อัพเดทCOD</t>
   </si>
   <si>
-    <t>31-12-2021</t>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,6 +185,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -211,35 +233,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +591,8 @@
     <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -589,11 +611,11 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>23</v>
+      <c r="G1" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,9 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E6085-11F8-47DC-9277-2C1439A88308}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -792,7 +812,7 @@
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -803,13 +823,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -824,7 +844,7 @@
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
         <v>18</v>
@@ -834,29 +854,29 @@
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>21</v>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
